--- a/public/dish_database.xlsx
+++ b/public/dish_database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashwin/Documents/ReactProjects/dish-recommender-system/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashwin/Documents/dish-recommender/dish-recommender-frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D727AD-A7E0-A641-ADE2-360E3E7F9760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A11B7A-4FD6-D94A-BDD5-D3E2F109A3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Koshambari Salad</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Raw Mango and ChickPea Salad</t>
   </si>
   <si>
-    <t>Pesarattu</t>
-  </si>
-  <si>
-    <t>Adai</t>
-  </si>
-  <si>
     <t>Oats Dosa</t>
   </si>
   <si>
@@ -86,51 +80,6 @@
     <t>Sabudana Khichdi</t>
   </si>
   <si>
-    <t>Avial + Papadam</t>
-  </si>
-  <si>
-    <t>Pineapple Rasam + Bhindi Curry</t>
-  </si>
-  <si>
-    <t>Tomato and Garlic Rasam + Carrot Peas Curry</t>
-  </si>
-  <si>
-    <t>Dal Tadka + French Beans Curry</t>
-  </si>
-  <si>
-    <t>Mango Morkuzhambu + Potato Curry</t>
-  </si>
-  <si>
-    <t>Kadhi + Raw Banana Curry</t>
-  </si>
-  <si>
-    <t>Pumpkin Sambhar + Cabbage Curry</t>
-  </si>
-  <si>
-    <t>Radish Sambhar + Cluster Beans Curry</t>
-  </si>
-  <si>
-    <t>Drumstick Sambhar + French Beans Curry</t>
-  </si>
-  <si>
-    <t>Pulao + Pahadi Raita</t>
-  </si>
-  <si>
-    <t>Stir Fried Rice + Mix Veg Raita</t>
-  </si>
-  <si>
-    <t>Steamed Rice + Rajma</t>
-  </si>
-  <si>
-    <t>Chapati + Mutter Paneer</t>
-  </si>
-  <si>
-    <t>Chapati + Palak Paneer</t>
-  </si>
-  <si>
-    <t>Chapati + Mix Veg Curry</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -144,6 +93,54 @@
   </si>
   <si>
     <t>salad</t>
+  </si>
+  <si>
+    <t>Avial</t>
+  </si>
+  <si>
+    <t>Pineapple Rasam</t>
+  </si>
+  <si>
+    <t>Tomato and Garlic Rasam</t>
+  </si>
+  <si>
+    <t>Dal Tadka</t>
+  </si>
+  <si>
+    <t>Dal Kadhi</t>
+  </si>
+  <si>
+    <t>Pumpkin Sambhar</t>
+  </si>
+  <si>
+    <t>Radish Sambhar</t>
+  </si>
+  <si>
+    <t>Drumstick Sambhar</t>
+  </si>
+  <si>
+    <t>Pulao</t>
+  </si>
+  <si>
+    <t>Vegetable Fried Rice</t>
+  </si>
+  <si>
+    <t>Rajma</t>
+  </si>
+  <si>
+    <t>Mutter Paneer</t>
+  </si>
+  <si>
+    <t>Palak Paneer</t>
+  </si>
+  <si>
+    <t>Mix Vegetable Curry</t>
+  </si>
+  <si>
+    <t>Moong Daal Cheela</t>
+  </si>
+  <si>
+    <t>Besan Cheela</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,9 @@
   </sheetPr>
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -434,10 +433,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -445,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -454,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -463,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -472,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -481,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -490,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -499,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -508,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -517,206 +516,200 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>19</v>
+      <c r="A21" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>20</v>
+      <c r="A22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>21</v>
+      <c r="A23" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>22</v>
+      <c r="A24" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>23</v>
+      <c r="A25" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>24</v>
+      <c r="A26" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>25</v>
+      <c r="A27" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>26</v>
+      <c r="A28" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>27</v>
+      <c r="A29" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>28</v>
+      <c r="A30" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>29</v>
+      <c r="A31" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
